--- a/expriment/main/AffLoop.xlsx
+++ b/expriment/main/AffLoop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryougi mana\Desktop\CF_DDM\expriment\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF1B5F6-61C7-454F-8B57-378CD82959B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DB212-145B-454D-B33D-44FAC4A74B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,16 +35,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pic/AffRest2.png</t>
+    <t>pic/EndExp.PNG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pic/AffRest3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>pic/AffRest2.png</t>
   </si>
   <si>
-    <t>pic/EndExp.PNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>pic/AffRest3.png</t>
   </si>
 </sst>
 </file>
@@ -372,7 +370,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -389,17 +387,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/expriment/main/AffLoop.xlsx
+++ b/expriment/main/AffLoop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryougi mana\Desktop\CF_DDM\expriment\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DB212-145B-454D-B33D-44FAC4A74B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5572ADEE-B631-4519-8499-56CB9440A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pic/EndExp.PNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pic/AffRest2.png</t>
   </si>
   <si>
     <t>pic/AffRest3.png</t>
+  </si>
+  <si>
+    <t>pic/EndExp.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -370,10 +370,13 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -387,17 +390,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
